--- a/processed_data/Weekly_distribution/VauDe_CT_weekly_share.xlsx
+++ b/processed_data/Weekly_distribution/VauDe_CT_weekly_share.xlsx
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>117.334</v>
+        <v>23.467</v>
       </c>
       <c r="E2">
         <v>17.763</v>
       </c>
       <c r="F2">
-        <v>0.151</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>117.334</v>
+        <v>23.467</v>
       </c>
       <c r="E3">
         <v>16.824</v>
       </c>
       <c r="F3">
-        <v>0.143</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>117.334</v>
+        <v>23.467</v>
       </c>
       <c r="E4">
         <v>25.529</v>
       </c>
       <c r="F4">
-        <v>0.218</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>117.334</v>
+        <v>23.467</v>
       </c>
       <c r="E5">
         <v>32.105</v>
       </c>
       <c r="F5">
-        <v>0.274</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>117.334</v>
+        <v>23.467</v>
       </c>
       <c r="E6">
         <v>25.114</v>
       </c>
       <c r="F6">
-        <v>0.214</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>110.595</v>
+        <v>22.119</v>
       </c>
       <c r="E7">
         <v>20.533</v>
       </c>
       <c r="F7">
-        <v>0.186</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>110.595</v>
+        <v>22.119</v>
       </c>
       <c r="E8">
         <v>18.853</v>
       </c>
       <c r="F8">
-        <v>0.17</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>110.595</v>
+        <v>22.119</v>
       </c>
       <c r="E9">
         <v>28.862</v>
       </c>
       <c r="F9">
-        <v>0.261</v>
+        <v>1.305</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>110.595</v>
+        <v>22.119</v>
       </c>
       <c r="E10">
         <v>24.565</v>
       </c>
       <c r="F10">
-        <v>0.222</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>110.595</v>
+        <v>22.119</v>
       </c>
       <c r="E11">
         <v>17.782</v>
       </c>
       <c r="F11">
-        <v>0.161</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>102.101</v>
+        <v>25.525</v>
       </c>
       <c r="E12">
         <v>17.428</v>
       </c>
       <c r="F12">
-        <v>0.171</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>102.101</v>
+        <v>25.525</v>
       </c>
       <c r="E13">
         <v>32.502</v>
       </c>
       <c r="F13">
-        <v>0.318</v>
+        <v>1.273</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>102.101</v>
+        <v>25.525</v>
       </c>
       <c r="E14">
         <v>29.986</v>
       </c>
       <c r="F14">
-        <v>0.294</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>102.101</v>
+        <v>25.525</v>
       </c>
       <c r="E15">
         <v>22.185</v>
       </c>
       <c r="F15">
-        <v>0.217</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>93.352</v>
+        <v>23.338</v>
       </c>
       <c r="E16">
         <v>28.045</v>
       </c>
       <c r="F16">
-        <v>0.3</v>
+        <v>1.202</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>93.352</v>
+        <v>23.338</v>
       </c>
       <c r="E17">
         <v>15.682</v>
       </c>
       <c r="F17">
-        <v>0.168</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>93.352</v>
+        <v>23.338</v>
       </c>
       <c r="E18">
         <v>30.688</v>
       </c>
       <c r="F18">
-        <v>0.329</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>93.352</v>
+        <v>23.338</v>
       </c>
       <c r="E19">
         <v>18.937</v>
       </c>
       <c r="F19">
-        <v>0.203</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>62.972</v>
+        <v>12.594</v>
       </c>
       <c r="E20">
         <v>16.309</v>
       </c>
       <c r="F20">
-        <v>0.259</v>
+        <v>1.295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>62.972</v>
+        <v>12.594</v>
       </c>
       <c r="E21">
         <v>12.241</v>
       </c>
       <c r="F21">
-        <v>0.194</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>62.972</v>
+        <v>12.594</v>
       </c>
       <c r="E22">
         <v>15.55</v>
       </c>
       <c r="F22">
-        <v>0.247</v>
+        <v>1.235</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>62.972</v>
+        <v>12.594</v>
       </c>
       <c r="E23">
         <v>10.856</v>
       </c>
       <c r="F23">
-        <v>0.172</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>62.972</v>
+        <v>12.594</v>
       </c>
       <c r="E24">
         <v>8.016</v>
       </c>
       <c r="F24">
-        <v>0.127</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>47.329</v>
+        <v>11.832</v>
       </c>
       <c r="E25">
         <v>10.792</v>
       </c>
       <c r="F25">
-        <v>0.228</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>47.329</v>
+        <v>11.832</v>
       </c>
       <c r="E26">
         <v>17.699</v>
       </c>
       <c r="F26">
-        <v>0.374</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>47.329</v>
+        <v>11.832</v>
       </c>
       <c r="E27">
         <v>9.606</v>
       </c>
       <c r="F27">
-        <v>0.203</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>47.329</v>
+        <v>11.832</v>
       </c>
       <c r="E28">
         <v>9.231999999999999</v>
       </c>
       <c r="F28">
-        <v>0.195</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>28.265</v>
+        <v>7.066</v>
       </c>
       <c r="E29">
         <v>10.989</v>
       </c>
       <c r="F29">
-        <v>0.389</v>
+        <v>1.555</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>28.265</v>
+        <v>7.066</v>
       </c>
       <c r="E30">
         <v>6.344</v>
       </c>
       <c r="F30">
-        <v>0.224</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>28.265</v>
+        <v>7.066</v>
       </c>
       <c r="E31">
         <v>6.582</v>
       </c>
       <c r="F31">
-        <v>0.233</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>28.265</v>
+        <v>7.066</v>
       </c>
       <c r="E32">
         <v>4.35</v>
       </c>
       <c r="F32">
-        <v>0.154</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>35.945</v>
+        <v>7.189</v>
       </c>
       <c r="E33">
         <v>6.258</v>
       </c>
       <c r="F33">
-        <v>0.174</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>35.945</v>
+        <v>7.189</v>
       </c>
       <c r="E34">
         <v>8.960000000000001</v>
       </c>
       <c r="F34">
-        <v>0.249</v>
+        <v>1.246</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>35.945</v>
+        <v>7.189</v>
       </c>
       <c r="E35">
         <v>8.927</v>
       </c>
       <c r="F35">
-        <v>0.248</v>
+        <v>1.242</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>35.945</v>
+        <v>7.189</v>
       </c>
       <c r="E36">
         <v>7.275</v>
       </c>
       <c r="F36">
-        <v>0.202</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>35.945</v>
+        <v>7.189</v>
       </c>
       <c r="E37">
         <v>4.525</v>
       </c>
       <c r="F37">
-        <v>0.126</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>51.105</v>
+        <v>12.776</v>
       </c>
       <c r="E38">
         <v>4.909</v>
       </c>
       <c r="F38">
-        <v>0.096</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>51.105</v>
+        <v>12.776</v>
       </c>
       <c r="E39">
         <v>6.684</v>
       </c>
       <c r="F39">
-        <v>0.131</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>51.105</v>
+        <v>12.776</v>
       </c>
       <c r="E40">
         <v>17.66</v>
       </c>
       <c r="F40">
-        <v>0.346</v>
+        <v>1.382</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>51.105</v>
+        <v>12.776</v>
       </c>
       <c r="E41">
         <v>21.853</v>
       </c>
       <c r="F41">
-        <v>0.428</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>84.51900000000001</v>
+        <v>21.13</v>
       </c>
       <c r="E42">
         <v>11.207</v>
       </c>
       <c r="F42">
-        <v>0.133</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>84.51900000000001</v>
+        <v>21.13</v>
       </c>
       <c r="E43">
         <v>18.767</v>
       </c>
       <c r="F43">
-        <v>0.222</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>84.51900000000001</v>
+        <v>21.13</v>
       </c>
       <c r="E44">
         <v>31.457</v>
       </c>
       <c r="F44">
-        <v>0.372</v>
+        <v>1.489</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,13 +1280,13 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>84.51900000000001</v>
+        <v>21.13</v>
       </c>
       <c r="E45">
         <v>23.087</v>
       </c>
       <c r="F45">
-        <v>0.273</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,13 +1300,13 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>120.952</v>
+        <v>30.238</v>
       </c>
       <c r="E46">
         <v>27.026</v>
       </c>
       <c r="F46">
-        <v>0.223</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>120.952</v>
+        <v>30.238</v>
       </c>
       <c r="E47">
         <v>30.224</v>
       </c>
       <c r="F47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,13 +1340,13 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>120.952</v>
+        <v>30.238</v>
       </c>
       <c r="E48">
         <v>28.03</v>
       </c>
       <c r="F48">
-        <v>0.232</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>120.952</v>
+        <v>30.238</v>
       </c>
       <c r="E49">
         <v>35.672</v>
       </c>
       <c r="F49">
-        <v>0.295</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>125.558</v>
+        <v>31.39</v>
       </c>
       <c r="E50">
         <v>28.345</v>
       </c>
       <c r="F50">
-        <v>0.226</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,13 +1400,13 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>125.558</v>
+        <v>31.39</v>
       </c>
       <c r="E51">
         <v>39.011</v>
       </c>
       <c r="F51">
-        <v>0.311</v>
+        <v>1.243</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>125.558</v>
+        <v>31.39</v>
       </c>
       <c r="E52">
         <v>31.456</v>
       </c>
       <c r="F52">
-        <v>0.251</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>125.558</v>
+        <v>31.39</v>
       </c>
       <c r="E53">
         <v>26.746</v>
       </c>
       <c r="F53">
-        <v>0.213</v>
+        <v>0.852</v>
       </c>
     </row>
   </sheetData>
